--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/bicards_mechanism/bricards_mechanism.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/bicards_mechanism/bricards_mechanism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\bicards_mechanism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F70D4B4-174C-44B8-BA74-8C4C9DDBEA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C29CE17-13EA-439F-AC4F-3FD42060BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12570" yWindow="3495" windowWidth="16200" windowHeight="11385" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -810,9 +810,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>mmks</t>
-  </si>
-  <si>
     <t>Animation</t>
   </si>
   <si>
@@ -853,6 +850,9 @@
   </si>
   <si>
     <t>sj(vector to take body j orientation)</t>
+  </si>
+  <si>
+    <t>MKS</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,104 +1255,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1377,9 +1380,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1387,6 +1387,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1937,7 +1940,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,44 +1959,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="J2" s="93" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="J2" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="41">
         <v>10</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="88" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="83"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="84"/>
       <c r="P3" s="37" t="s">
         <v>156</v>
       </c>
@@ -2002,12 +2005,12 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="87"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="41">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>22</v>
@@ -2018,14 +2021,14 @@
       <c r="K4" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="98"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="36" t="s">
         <v>127</v>
       </c>
       <c r="N4" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="84"/>
+      <c r="O4" s="85"/>
       <c r="P4" s="37" t="s">
         <v>157</v>
       </c>
@@ -2034,10 +2037,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="87"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="41" t="s">
         <v>81</v>
       </c>
@@ -2050,14 +2053,14 @@
       <c r="K5" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="98"/>
+      <c r="L5" s="99"/>
       <c r="M5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="84"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="37" t="s">
         <v>158</v>
       </c>
@@ -2066,10 +2069,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="41" t="s">
         <v>3</v>
       </c>
@@ -2082,14 +2085,14 @@
       <c r="K6" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="98"/>
+      <c r="L6" s="99"/>
       <c r="M6" s="37" t="s">
         <v>129</v>
       </c>
       <c r="N6" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="84"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="37" t="s">
         <v>162</v>
       </c>
@@ -2098,12 +2101,12 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="41">
-        <v>-9806.65</v>
+        <v>-9.8066499999999994</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>106</v>
@@ -2114,14 +2117,14 @@
       <c r="K7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="98"/>
+      <c r="L7" s="99"/>
       <c r="M7" s="37" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="84"/>
+      <c r="O7" s="85"/>
       <c r="P7" s="37" t="s">
         <v>161</v>
       </c>
@@ -2130,12 +2133,12 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="87"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="41" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>85</v>
@@ -2146,14 +2149,14 @@
       <c r="K8" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="98"/>
+      <c r="L8" s="99"/>
       <c r="M8" s="37" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="84"/>
+      <c r="O8" s="85"/>
       <c r="P8" s="37" t="s">
         <v>165</v>
       </c>
@@ -2162,10 +2165,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="41"/>
       <c r="E9" s="42" t="s">
         <v>120</v>
@@ -2176,14 +2179,14 @@
       <c r="K9" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="98"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="37" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="84"/>
+      <c r="O9" s="85"/>
       <c r="P9" s="37" t="s">
         <v>166</v>
       </c>
@@ -2198,14 +2201,14 @@
       <c r="K10" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="98"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="37" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="84"/>
+      <c r="O10" s="85"/>
       <c r="P10" s="40" t="s">
         <v>167</v>
       </c>
@@ -2216,14 +2219,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="44"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="98"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="37" t="s">
         <v>131</v>
       </c>
       <c r="N11" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="84"/>
+      <c r="O11" s="85"/>
       <c r="P11" s="40" t="s">
         <v>168</v>
       </c>
@@ -2232,25 +2235,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
       <c r="J12" s="46"/>
       <c r="K12" s="47"/>
-      <c r="L12" s="98"/>
+      <c r="L12" s="99"/>
       <c r="M12" s="37" t="s">
         <v>132</v>
       </c>
       <c r="N12" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="O12" s="84"/>
+      <c r="O12" s="85"/>
       <c r="P12" s="37" t="s">
         <v>173</v>
       </c>
@@ -2259,29 +2262,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="60" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
       <c r="J13" s="46"/>
       <c r="K13" s="47"/>
-      <c r="L13" s="98"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="37" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="84"/>
+      <c r="O13" s="85"/>
       <c r="P13" s="40" t="s">
         <v>174</v>
       </c>
@@ -2290,27 +2293,27 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60" t="s">
+      <c r="C14" s="86"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
       <c r="J14" s="48"/>
       <c r="K14" s="49"/>
-      <c r="L14" s="98"/>
+      <c r="L14" s="99"/>
       <c r="M14" s="37" t="s">
         <v>133</v>
       </c>
       <c r="N14" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="O14" s="84"/>
+      <c r="O14" s="85"/>
       <c r="P14" s="40" t="s">
         <v>175</v>
       </c>
@@ -2319,29 +2322,29 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60" t="s">
+      <c r="C15" s="86"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="J15" s="88" t="s">
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="J15" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="89"/>
-      <c r="L15" s="98"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="99"/>
       <c r="M15" s="37" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="84"/>
+      <c r="O15" s="85"/>
       <c r="P15" s="40" t="s">
         <v>176</v>
       </c>
@@ -2350,31 +2353,31 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60" t="s">
+      <c r="C16" s="86"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
       <c r="J16" s="37" t="s">
         <v>93</v>
       </c>
       <c r="K16" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="98"/>
+      <c r="L16" s="99"/>
       <c r="M16" s="37" t="s">
         <v>134</v>
       </c>
       <c r="N16" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="O16" s="84"/>
+      <c r="O16" s="85"/>
       <c r="P16" s="37" t="s">
         <v>181</v>
       </c>
@@ -2383,29 +2386,29 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60" t="s">
+      <c r="C17" s="86"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
       <c r="J17" s="37" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="98"/>
-      <c r="M17" s="88" t="s">
+      <c r="L17" s="99"/>
+      <c r="M17" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="N17" s="89"/>
-      <c r="O17" s="84"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="85"/>
       <c r="P17" s="40" t="s">
         <v>182</v>
       </c>
@@ -2414,31 +2417,31 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60" t="s">
+      <c r="C18" s="86"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
       <c r="J18" s="37" t="s">
         <v>94</v>
       </c>
       <c r="K18" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="98"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="43" t="s">
         <v>155</v>
       </c>
       <c r="N18" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="O18" s="84"/>
+      <c r="O18" s="85"/>
       <c r="P18" s="40" t="s">
         <v>183</v>
       </c>
@@ -2447,33 +2450,33 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="60" t="s">
+      <c r="C19" s="86"/>
+      <c r="D19" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
       <c r="J19" s="37" t="s">
         <v>95</v>
       </c>
       <c r="K19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="98"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="38" t="s">
         <v>147</v>
       </c>
       <c r="N19" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="84"/>
+      <c r="O19" s="85"/>
       <c r="P19" s="40" t="s">
         <v>184</v>
       </c>
@@ -2482,33 +2485,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="60" t="s">
+      <c r="B20" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="86"/>
+      <c r="D20" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
       <c r="J20" s="37" t="s">
         <v>101</v>
       </c>
       <c r="K20" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="98"/>
+      <c r="L20" s="99"/>
       <c r="M20" s="38" t="s">
         <v>148</v>
       </c>
       <c r="N20" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="84"/>
+      <c r="O20" s="85"/>
       <c r="P20" s="37" t="s">
         <v>189</v>
       </c>
@@ -2517,31 +2520,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60" t="s">
+      <c r="B21" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="86"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
       <c r="J21" s="37" t="s">
         <v>96</v>
       </c>
       <c r="K21" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="98"/>
+      <c r="L21" s="99"/>
       <c r="M21" s="38" t="s">
         <v>149</v>
       </c>
       <c r="N21" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="O21" s="84"/>
+      <c r="O21" s="85"/>
       <c r="P21" s="40" t="s">
         <v>190</v>
       </c>
@@ -2550,19 +2553,19 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="91" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="91" t="s">
+      <c r="F22" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="61">
+      <c r="G22" s="92"/>
+      <c r="H22" s="59">
         <v>5</v>
       </c>
       <c r="J22" s="27" t="s">
@@ -2571,14 +2574,14 @@
       <c r="K22" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="99"/>
+      <c r="L22" s="100"/>
       <c r="M22" s="38" t="s">
         <v>150</v>
       </c>
       <c r="N22" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="O22" s="84"/>
+      <c r="O22" s="85"/>
       <c r="P22" s="40" t="s">
         <v>191</v>
       </c>
@@ -2587,19 +2590,19 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="61"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="84"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="59"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="85"/>
       <c r="P23" s="40" t="s">
         <v>192</v>
       </c>
@@ -2608,19 +2611,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="61"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="84"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="59"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="85"/>
       <c r="P24" s="27" t="s">
         <v>198</v>
       </c>
@@ -2629,19 +2632,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="61"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="84"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="59"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="85"/>
       <c r="P25" s="27" t="s">
         <v>202</v>
       </c>
@@ -2650,19 +2653,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="61"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="84"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="59"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="85"/>
       <c r="P26" s="27" t="s">
         <v>203</v>
       </c>
@@ -2671,19 +2674,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="61"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="84"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="59"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="85"/>
       <c r="P27" s="27" t="s">
         <v>204</v>
       </c>
@@ -2692,19 +2695,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="61"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="84"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="59"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="85"/>
       <c r="P28" s="27" t="s">
         <v>206</v>
       </c>
@@ -2713,19 +2716,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="61"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="84"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="59"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="85"/>
       <c r="P29" s="27" t="s">
         <v>205</v>
       </c>
@@ -2734,12 +2737,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="84"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="85"/>
       <c r="P30" s="27" t="s">
         <v>207</v>
       </c>
@@ -2748,12 +2751,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="77"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="84"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="85"/>
       <c r="P31" s="27" t="s">
         <v>208</v>
       </c>
@@ -2762,12 +2765,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="77"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="84"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="85"/>
       <c r="P32" s="27" t="s">
         <v>209</v>
       </c>
@@ -2776,12 +2779,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="77"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="84"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="85"/>
       <c r="P33" s="27" t="s">
         <v>210</v>
       </c>
@@ -2790,12 +2793,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="77"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="84"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="85"/>
       <c r="P34" s="27" t="s">
         <v>211</v>
       </c>
@@ -2804,12 +2807,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="77"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="84"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="85"/>
       <c r="P35" s="27" t="s">
         <v>212</v>
       </c>
@@ -2818,12 +2821,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="77"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="84"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="85"/>
       <c r="P36" s="27" t="s">
         <v>221</v>
       </c>
@@ -2832,12 +2835,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="77"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="84"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="85"/>
       <c r="P37" s="27" t="s">
         <v>222</v>
       </c>
@@ -2846,12 +2849,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="80"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="84"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="85"/>
       <c r="P38" s="27" t="s">
         <v>223</v>
       </c>
@@ -2911,7 +2914,7 @@
   <dimension ref="A1:AK196"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,93 +2933,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="85" t="s">
+      <c r="A1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85" t="s">
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85" t="s">
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="55" t="s">
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="102"/>
+      <c r="AK1" s="103"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="100" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100" t="s">
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100" t="s">
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="85" t="s">
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85" t="s">
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="91" t="s">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="92" t="s">
         <v>83</v>
       </c>
       <c r="S2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="104" t="s">
+      <c r="T2" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="105"/>
-      <c r="V2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="107"/>
       <c r="W2" s="101" t="s">
         <v>89</v>
       </c>
@@ -3095,7 +3098,7 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="91"/>
+      <c r="R3" s="92"/>
       <c r="S3" s="56"/>
       <c r="T3" s="57" t="s">
         <v>61</v>
@@ -3276,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="16">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="22">
         <v>0</v>
@@ -3299,13 +3302,13 @@
       <c r="K5" s="26">
         <v>0</v>
       </c>
-      <c r="L5" s="26">
-        <v>1.5708</v>
-      </c>
-      <c r="M5" s="26">
-        <v>0</v>
-      </c>
-      <c r="N5" s="26">
+      <c r="L5" s="72">
+        <v>0</v>
+      </c>
+      <c r="M5" s="72">
+        <v>0</v>
+      </c>
+      <c r="N5" s="72">
         <v>0</v>
       </c>
       <c r="O5" s="26">
@@ -3321,18 +3324,16 @@
         <v>0</v>
       </c>
       <c r="S5" s="57">
-        <v>94.25</v>
-      </c>
-      <c r="T5" s="57">
-        <f>8.0896*10^6</f>
-        <v>8089600.0000000009</v>
-      </c>
-      <c r="U5" s="58">
-        <v>471239</v>
-      </c>
-      <c r="V5" s="58">
-        <f>8.0896*10^6</f>
-        <v>8089600.0000000009</v>
+        <v>0.9425</v>
+      </c>
+      <c r="T5" s="74">
+        <v>7.8562999999999994E-2</v>
+      </c>
+      <c r="U5" s="74">
+        <v>4.7123000000000003E-5</v>
+      </c>
+      <c r="V5" s="74">
+        <v>7.8562999999999994E-2</v>
       </c>
       <c r="W5" s="55">
         <v>0</v>
@@ -3388,7 +3389,7 @@
         <v>235</v>
       </c>
       <c r="C6" s="57">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="16">
         <v>0</v>
@@ -3414,14 +3415,14 @@
       <c r="K6" s="26">
         <v>0</v>
       </c>
-      <c r="L6" s="26">
-        <v>0</v>
-      </c>
-      <c r="M6" s="26">
-        <v>1.5708</v>
-      </c>
-      <c r="N6" s="26">
-        <v>1.5708</v>
+      <c r="L6" s="72">
+        <v>0</v>
+      </c>
+      <c r="M6" s="72">
+        <v>0</v>
+      </c>
+      <c r="N6" s="72">
+        <v>0</v>
       </c>
       <c r="O6" s="26">
         <v>0</v>
@@ -3435,19 +3436,17 @@
       <c r="R6" s="26">
         <v>0</v>
       </c>
-      <c r="S6" s="58">
-        <v>94.25</v>
-      </c>
-      <c r="T6" s="58">
-        <v>471239</v>
-      </c>
-      <c r="U6" s="58">
-        <f>8.0896*10^6</f>
-        <v>8089600.0000000009</v>
-      </c>
-      <c r="V6" s="58">
-        <f>8.0896*10^6</f>
-        <v>8089600.0000000009</v>
+      <c r="S6" s="73">
+        <v>0.9425</v>
+      </c>
+      <c r="T6" s="74">
+        <v>4.7123799999999998E-5</v>
+      </c>
+      <c r="U6" s="74">
+        <v>7.8562999999999994E-2</v>
+      </c>
+      <c r="V6" s="74">
+        <v>7.8653299999999995E-2</v>
       </c>
       <c r="W6" s="55">
         <v>0</v>
@@ -3503,13 +3502,13 @@
         <v>236</v>
       </c>
       <c r="C7" s="16">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D7" s="16">
         <v>0</v>
       </c>
       <c r="E7" s="16">
-        <v>-500</v>
+        <v>-0.5</v>
       </c>
       <c r="F7" s="26">
         <v>0</v>
@@ -3529,13 +3528,13 @@
       <c r="K7" s="26">
         <v>0</v>
       </c>
-      <c r="L7" s="26">
-        <v>0</v>
-      </c>
-      <c r="M7" s="26">
-        <v>0</v>
-      </c>
-      <c r="N7" s="26">
+      <c r="L7" s="72">
+        <v>0</v>
+      </c>
+      <c r="M7" s="72">
+        <v>0</v>
+      </c>
+      <c r="N7" s="72">
         <v>0</v>
       </c>
       <c r="O7" s="26">
@@ -3550,19 +3549,17 @@
       <c r="R7" s="26">
         <v>0</v>
       </c>
-      <c r="S7" s="58">
-        <v>94.25</v>
-      </c>
-      <c r="T7" s="58">
-        <f>8.0896*10^6</f>
-        <v>8089600.0000000009</v>
-      </c>
-      <c r="U7" s="59">
-        <f>8.0896*10^6</f>
-        <v>8089600.0000000009</v>
-      </c>
-      <c r="V7" s="58">
-        <v>471239</v>
+      <c r="S7" s="73">
+        <v>0.9425</v>
+      </c>
+      <c r="T7" s="74">
+        <v>7.8563300000000003E-2</v>
+      </c>
+      <c r="U7" s="74">
+        <v>7.8563300000000003E-2</v>
+      </c>
+      <c r="V7" s="74">
+        <v>4.7123799999999998E-5</v>
       </c>
       <c r="W7" s="55">
         <v>0</v>
@@ -3618,13 +3615,13 @@
         <v>237</v>
       </c>
       <c r="C8" s="54">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D8" s="54">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="54">
-        <v>-1000</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="53">
         <v>0</v>
@@ -3644,13 +3641,13 @@
       <c r="K8" s="53">
         <v>0</v>
       </c>
-      <c r="L8" s="53">
-        <v>1.5708</v>
-      </c>
-      <c r="M8" s="53">
-        <v>0</v>
-      </c>
-      <c r="N8" s="53">
+      <c r="L8" s="72">
+        <v>0</v>
+      </c>
+      <c r="M8" s="72">
+        <v>0</v>
+      </c>
+      <c r="N8" s="72">
         <v>0</v>
       </c>
       <c r="O8" s="53">
@@ -3665,19 +3662,17 @@
       <c r="R8" s="53">
         <v>0</v>
       </c>
-      <c r="S8" s="58">
-        <v>94.25</v>
-      </c>
-      <c r="T8" s="58">
-        <f>8.0896*10^6</f>
-        <v>8089600.0000000009</v>
-      </c>
-      <c r="U8" s="58">
-        <v>471239</v>
-      </c>
-      <c r="V8" s="58">
-        <f>8.0896*10^6</f>
-        <v>8089600.0000000009</v>
+      <c r="S8" s="73">
+        <v>0.9425</v>
+      </c>
+      <c r="T8" s="74">
+        <v>7.8562999999999994E-2</v>
+      </c>
+      <c r="U8" s="74">
+        <v>4.7123000000000003E-5</v>
+      </c>
+      <c r="V8" s="74">
+        <v>7.8562999999999994E-2</v>
       </c>
       <c r="W8" s="55">
         <v>0</v>
@@ -3733,13 +3728,13 @@
         <v>238</v>
       </c>
       <c r="C9" s="54">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="54">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E9" s="54">
-        <v>-1000</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="53">
         <v>0</v>
@@ -3759,14 +3754,14 @@
       <c r="K9" s="53">
         <v>0</v>
       </c>
-      <c r="L9" s="53">
-        <v>0</v>
-      </c>
-      <c r="M9" s="53">
-        <v>1.5708</v>
-      </c>
-      <c r="N9" s="53">
-        <v>1.5708</v>
+      <c r="L9" s="72">
+        <v>0</v>
+      </c>
+      <c r="M9" s="72">
+        <v>0</v>
+      </c>
+      <c r="N9" s="72">
+        <v>0</v>
       </c>
       <c r="O9" s="53">
         <v>0</v>
@@ -3780,19 +3775,17 @@
       <c r="R9" s="53">
         <v>0</v>
       </c>
-      <c r="S9" s="58">
-        <v>94.25</v>
-      </c>
-      <c r="T9" s="58">
-        <v>471239</v>
-      </c>
-      <c r="U9" s="58">
-        <f>8.0896*10^6</f>
-        <v>8089600.0000000009</v>
-      </c>
-      <c r="V9" s="58">
-        <f>8.0896*10^6</f>
-        <v>8089600.0000000009</v>
+      <c r="S9" s="73">
+        <v>0.9425</v>
+      </c>
+      <c r="T9" s="74">
+        <v>4.7123799999999998E-5</v>
+      </c>
+      <c r="U9" s="74">
+        <v>7.8562999999999994E-2</v>
+      </c>
+      <c r="V9" s="74">
+        <v>7.8653299999999995E-2</v>
       </c>
       <c r="W9" s="55">
         <v>0</v>
@@ -6859,13 +6852,10 @@
       <c r="P196" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
+  <mergeCells count="18">
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="S1:AK1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O2:Q2"/>
@@ -6877,6 +6867,10 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6887,8 +6881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6907,16 +6901,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6947,11 +6941,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7007,19 +7001,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7044,16 +7038,16 @@
       <c r="E6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="113" t="s">
+      <c r="G6" s="115"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -7089,22 +7083,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7129,21 +7123,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="107" t="s">
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107" t="s">
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7174,19 +7168,19 @@
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -7211,16 +7205,16 @@
       <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="107" t="s">
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7247,16 +7241,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="21">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H13" s="21">
         <v>0</v>
       </c>
       <c r="I13" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="19">
         <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1000</v>
       </c>
       <c r="K13" s="19">
         <v>0</v>
@@ -7299,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="19">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -7324,7 +7318,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="21">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G15" s="21">
         <v>0</v>
@@ -7333,10 +7327,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J15" s="19">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="19">
         <v>0</v>
@@ -7357,29 +7351,29 @@
         <v>12</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="62">
+      <c r="D16" s="60">
         <v>4</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="60">
         <v>5</v>
       </c>
-      <c r="F16" s="63">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="63">
-        <v>0</v>
-      </c>
-      <c r="H16" s="63">
-        <v>-1000</v>
-      </c>
-      <c r="I16" s="62">
-        <v>1001</v>
-      </c>
-      <c r="J16" s="62">
-        <v>0</v>
-      </c>
-      <c r="K16" s="62">
-        <v>-1000</v>
+      <c r="F16" s="61">
+        <v>1</v>
+      </c>
+      <c r="G16" s="61">
+        <v>0</v>
+      </c>
+      <c r="H16" s="61">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="60">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J16" s="60">
+        <v>0</v>
+      </c>
+      <c r="K16" s="60">
+        <v>-1</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
@@ -7402,22 +7396,22 @@
         <v>6</v>
       </c>
       <c r="F17" s="13">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G17" s="13">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H17" s="13">
-        <v>-1000</v>
+        <v>-1</v>
       </c>
       <c r="I17" s="13">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J17" s="13">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="K17" s="13">
-        <v>-999</v>
+        <v>-0.9</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -7444,19 +7438,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="13">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="H18" s="13">
-        <v>-1000</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="17">
         <v>0</v>
       </c>
       <c r="J18" s="17">
-        <v>1001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K18" s="17">
-        <v>-1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -7480,19 +7474,19 @@
       <c r="X19" s="10"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
@@ -7517,16 +7511,16 @@
       <c r="E21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="109" t="s">
+      <c r="F21" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="107" t="s">
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
     </row>
     <row r="22" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -7563,19 +7557,19 @@
       <c r="X23" s="10"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
@@ -7600,36 +7594,36 @@
       <c r="E25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="109" t="s">
+      <c r="F25" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="107" t="s">
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
     </row>
     <row r="26" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
     </row>
     <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
@@ -7647,44 +7641,44 @@
       <c r="E29" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="109" t="s">
+      <c r="F29" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="107" t="s">
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107" t="s">
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
     </row>
     <row r="30" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
     </row>
     <row r="33" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
@@ -7702,26 +7696,26 @@
       <c r="E33" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="113" t="s">
+      <c r="F33" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="114"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="113" t="s">
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="114"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="107" t="s">
+      <c r="J33" s="115"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107" t="s">
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
     </row>
     <row r="34" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
@@ -7744,14 +7738,14 @@
     </row>
     <row r="35" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -7825,12 +7819,12 @@
       <c r="X39" s="10"/>
     </row>
     <row r="40" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -7902,15 +7896,15 @@
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="112"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
@@ -7930,11 +7924,11 @@
       <c r="D45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="107" t="s">
+      <c r="E45" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="10"/>
@@ -7955,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="17">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G46" s="17">
         <v>0</v>
@@ -7964,7 +7958,9 @@
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="13">
+        <v>2</v>
+      </c>
       <c r="B47" s="13" t="s">
         <v>42</v>
       </c>
@@ -7975,7 +7971,7 @@
       <c r="E47" s="39">
         <v>0</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="17">
         <v>0</v>
       </c>
       <c r="G47" s="39">
@@ -7985,7 +7981,9 @@
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="13">
+        <v>3</v>
+      </c>
       <c r="B48" s="13" t="s">
         <v>42</v>
       </c>
@@ -7994,7 +7992,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="39">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F48" s="39">
         <v>0</v>
@@ -8008,7 +8006,9 @@
       <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="13">
+        <v>4</v>
+      </c>
       <c r="B49" s="13" t="s">
         <v>42</v>
       </c>
@@ -8017,16 +8017,19 @@
         <v>5</v>
       </c>
       <c r="E49" s="39">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F49" s="39">
         <v>0</v>
       </c>
       <c r="G49" s="39">
-        <v>-1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>5</v>
+      </c>
       <c r="B50" s="20" t="s">
         <v>42</v>
       </c>
@@ -8034,16 +8037,19 @@
         <v>6</v>
       </c>
       <c r="E50" s="39">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F50" s="39">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G50" s="39">
-        <v>-1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
+        <v>6</v>
+      </c>
       <c r="B51" s="20" t="s">
         <v>42</v>
       </c>
@@ -8054,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="39">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G51" s="39">
-        <v>-1000</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8139,51 +8145,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="118"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="K1" s="117"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="66" t="s">
+      <c r="J2" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="K2" s="64" t="s">
         <v>245</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8252,113 +8258,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="118" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="121"/>
+      <c r="AB2" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="132"/>
+    </row>
+    <row r="3" spans="1:33" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="141"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="128"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="66" t="s">
         <v>247</v>
-      </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="120"/>
-      <c r="AB2" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="131"/>
-    </row>
-    <row r="3" spans="1:33" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="68" t="s">
-        <v>248</v>
       </c>
       <c r="M3" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="67" t="s">
+      <c r="O3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="P3" s="65" t="s">
         <v>114</v>
       </c>
       <c r="Q3" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="138" t="s">
+      <c r="R3" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="138"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="133"/>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="133"/>
-      <c r="AG3" s="134"/>
+      <c r="S3" s="139"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="135"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="39"/>
@@ -8372,18 +8378,18 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
-      <c r="M4" s="69"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="33"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="134"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="135"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
@@ -8398,110 +8404,110 @@
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
-      <c r="M5" s="69"/>
+      <c r="M5" s="67"/>
       <c r="N5" s="39"/>
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="133"/>
-      <c r="AE5" s="133"/>
-      <c r="AF5" s="133"/>
-      <c r="AG5" s="134"/>
+      <c r="AB5" s="133"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="135"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="133"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133"/>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="134"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="135"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="133"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="133"/>
-      <c r="AF7" s="133"/>
-      <c r="AG7" s="134"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="AB7" s="133"/>
+      <c r="AC7" s="134"/>
+      <c r="AD7" s="134"/>
+      <c r="AE7" s="134"/>
+      <c r="AF7" s="134"/>
+      <c r="AG7" s="135"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="139" t="s">
-        <v>249</v>
-      </c>
-      <c r="O8" s="139"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="139"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="133"/>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="133"/>
-      <c r="AF8" s="133"/>
-      <c r="AG8" s="134"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="140" t="s">
+        <v>248</v>
+      </c>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="AB8" s="133"/>
+      <c r="AC8" s="134"/>
+      <c r="AD8" s="134"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="134"/>
+      <c r="AG8" s="135"/>
     </row>
     <row r="9" spans="1:33" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="140"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126" t="s">
+      <c r="G9" s="141"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="129"/>
       <c r="L9" s="32" t="s">
         <v>111</v>
       </c>
@@ -8517,16 +8523,16 @@
       <c r="P9" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" s="124" t="s">
+      <c r="Q9" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="R9" s="125"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="133"/>
-      <c r="AD9" s="133"/>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="133"/>
-      <c r="AG9" s="134"/>
+      <c r="R9" s="126"/>
+      <c r="AB9" s="133"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="134"/>
+      <c r="AE9" s="134"/>
+      <c r="AF9" s="134"/>
+      <c r="AG9" s="135"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -8540,14 +8546,14 @@
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="70"/>
+      <c r="L10" s="68"/>
       <c r="M10" s="24"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="133"/>
-      <c r="AD10" s="133"/>
-      <c r="AE10" s="133"/>
-      <c r="AF10" s="133"/>
-      <c r="AG10" s="134"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="134"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="135"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
@@ -8561,147 +8567,147 @@
       <c r="I11" s="39"/>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
-      <c r="L11" s="70"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="133"/>
-      <c r="AD11" s="133"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="133"/>
-      <c r="AG11" s="134"/>
+      <c r="L11" s="68"/>
+      <c r="AB11" s="133"/>
+      <c r="AC11" s="134"/>
+      <c r="AD11" s="134"/>
+      <c r="AE11" s="134"/>
+      <c r="AF11" s="134"/>
+      <c r="AG11" s="135"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="39"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="133"/>
-      <c r="AD12" s="133"/>
-      <c r="AE12" s="133"/>
-      <c r="AF12" s="133"/>
-      <c r="AG12" s="134"/>
+      <c r="AB12" s="133"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="135"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="136"/>
-      <c r="AD13" s="136"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="136"/>
-      <c r="AG13" s="137"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="138"/>
     </row>
     <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="118" t="s">
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="119" t="s">
+        <v>249</v>
+      </c>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+    </row>
+    <row r="15" spans="1:33" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-    </row>
-    <row r="15" spans="1:33" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="90" t="s">
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="127" t="s">
         <v>251</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="126" t="s">
+      <c r="J15" s="128"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="122" t="s">
         <v>252</v>
       </c>
-      <c r="J15" s="127"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="121" t="s">
+      <c r="M15" s="123"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="122" t="s">
         <v>253</v>
       </c>
-      <c r="M15" s="122"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="121" t="s">
-        <v>254</v>
-      </c>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="124"/>
       <c r="R15" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="65" t="s">
+      <c r="S15" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="T15" s="67" t="s">
+      <c r="T15" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="U15" s="67" t="s">
+      <c r="U15" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="V15" s="67" t="s">
+      <c r="V15" s="65" t="s">
         <v>114</v>
       </c>
       <c r="W15" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="X15" s="124" t="s">
+      <c r="X15" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="Y15" s="125"/>
+      <c r="Y15" s="126"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
@@ -8748,89 +8754,89 @@
       <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="118" t="s">
-        <v>247</v>
-      </c>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="120"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="119" t="s">
+        <v>246</v>
+      </c>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="121"/>
     </row>
     <row r="20" spans="1:20" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="90" t="s">
+      <c r="F20" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="121" t="s">
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="122"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="67" t="s">
+      <c r="J20" s="123"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="67" t="s">
+      <c r="M20" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="N20" s="67" t="s">
+      <c r="N20" s="65" t="s">
         <v>114</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="124" t="s">
+      <c r="P20" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="Q20" s="125"/>
+      <c r="Q20" s="126"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
@@ -8927,21 +8933,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="F1" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="I1" s="94" t="s">
+      <c r="G1" s="97"/>
+      <c r="I1" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
@@ -8959,12 +8965,12 @@
       <c r="G2" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="142" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="50"/>
@@ -8976,10 +8982,10 @@
       <c r="G3" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
@@ -8991,10 +8997,10 @@
       <c r="G4" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
@@ -9006,10 +9012,10 @@
       <c r="G5" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
@@ -9021,10 +9027,10 @@
       <c r="G6" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>

--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/bicards_mechanism/bricards_mechanism.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/bicards_mechanism/bricards_mechanism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\bicards_mechanism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Desktop\Thesis-Project\Multibody-System-Thesis-Software\mbs-EP-v.1.0.6 - eq mot\Excel Files\bicards_mechanism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C29CE17-13EA-439F-AC4F-3FD42060BBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC545AC-69A2-4EBA-8D3C-0FD0F4C617CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="3495" windowWidth="16200" windowHeight="11385" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1104,44 +1104,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1150,31 +1128,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1182,12 +1139,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1205,76 +1156,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1293,13 +1193,43 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1314,7 +1244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1336,48 +1266,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1389,25 +1283,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1417,15 +1308,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1441,30 +1323,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1500,7 +1358,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1939,7 +1821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1959,919 +1841,934 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
-      <c r="J2" s="94" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="J2" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="41">
+      <c r="C3" s="40"/>
+      <c r="D3" s="19">
         <v>10</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="89" t="s">
+      <c r="K3" s="45"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="90"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="37" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="41">
-        <v>1E-3</v>
-      </c>
-      <c r="E4" s="41" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="36" t="s">
+      <c r="L4" s="47"/>
+      <c r="M4" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="85"/>
-      <c r="P4" s="37" t="s">
+      <c r="O4" s="59"/>
+      <c r="P4" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="27" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="37" t="s">
+      <c r="J5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="99"/>
-      <c r="M5" s="37" t="s">
+      <c r="L5" s="47"/>
+      <c r="M5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="85"/>
-      <c r="P5" s="37" t="s">
+      <c r="O5" s="59"/>
+      <c r="P5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="27" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="99"/>
-      <c r="M6" s="37" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="37" t="s">
+      <c r="O6" s="59"/>
+      <c r="P6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="Q6" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="41">
+      <c r="C7" s="40"/>
+      <c r="D7" s="19">
         <v>-9.8066499999999994</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="99"/>
-      <c r="M7" s="37" t="s">
+      <c r="L7" s="47"/>
+      <c r="M7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="85"/>
-      <c r="P7" s="37" t="s">
+      <c r="O7" s="59"/>
+      <c r="P7" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="Q7" s="51" t="s">
+      <c r="Q7" s="27" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="99"/>
-      <c r="M8" s="37" t="s">
+      <c r="L8" s="47"/>
+      <c r="M8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="85"/>
-      <c r="P8" s="37" t="s">
+      <c r="O8" s="59"/>
+      <c r="P8" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" s="51" t="s">
+      <c r="Q8" s="27" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="99"/>
-      <c r="M9" s="37" t="s">
+      <c r="L9" s="47"/>
+      <c r="M9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="85"/>
-      <c r="P9" s="37" t="s">
+      <c r="O9" s="59"/>
+      <c r="P9" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="99"/>
-      <c r="M10" s="37" t="s">
+      <c r="L10" s="47"/>
+      <c r="M10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="85"/>
-      <c r="P10" s="40" t="s">
+      <c r="O10" s="59"/>
+      <c r="P10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="Q10" s="27" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="37" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="85"/>
-      <c r="P11" s="40" t="s">
+      <c r="O11" s="59"/>
+      <c r="P11" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="Q11" s="51" t="s">
+      <c r="Q11" s="27" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="37" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="N12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="O12" s="85"/>
-      <c r="P12" s="37" t="s">
+      <c r="O12" s="59"/>
+      <c r="P12" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="51" t="s">
+      <c r="Q12" s="27" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="59"/>
+      <c r="P13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="59"/>
+      <c r="P14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="J15" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="45"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="59"/>
+      <c r="P15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="J16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" s="59"/>
+      <c r="P16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="J17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="47"/>
+      <c r="M17" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="N17" s="45"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="J18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="47"/>
+      <c r="M18" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" s="59"/>
+      <c r="P18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="85"/>
-      <c r="P13" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q13" s="51" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="J19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="47"/>
+      <c r="M19" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="59"/>
+      <c r="P19" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" s="85"/>
-      <c r="P14" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q14" s="51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58" t="s">
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="J20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="47"/>
+      <c r="M20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="59"/>
+      <c r="P20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="J15" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="90"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="85"/>
-      <c r="P15" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q15" s="51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="J16" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="99"/>
-      <c r="M16" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="O16" s="85"/>
-      <c r="P16" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q16" s="51" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="J17" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="99"/>
-      <c r="M17" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="N17" s="90"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q17" s="51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="J18" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="99"/>
-      <c r="M18" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="O18" s="85"/>
-      <c r="P18" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q18" s="51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="J19" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="99"/>
-      <c r="M19" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="O19" s="85"/>
-      <c r="P19" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="J20" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="99"/>
-      <c r="M20" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="N20" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" s="85"/>
-      <c r="P20" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q20" s="51" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="J21" s="37" t="s">
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="J21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="99"/>
-      <c r="M21" s="38" t="s">
+      <c r="L21" s="47"/>
+      <c r="M21" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="N21" s="38" t="s">
+      <c r="N21" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="O21" s="85"/>
-      <c r="P21" s="40" t="s">
+      <c r="O21" s="59"/>
+      <c r="P21" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="Q21" s="51" t="s">
+      <c r="Q21" s="27" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="92" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="92" t="s">
+      <c r="F22" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="59">
+      <c r="G22" s="61"/>
+      <c r="H22" s="18">
         <v>5</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L22" s="100"/>
-      <c r="M22" s="38" t="s">
+      <c r="L22" s="48"/>
+      <c r="M22" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="O22" s="85"/>
-      <c r="P22" s="40" t="s">
+      <c r="O22" s="59"/>
+      <c r="P22" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="Q22" s="51" t="s">
+      <c r="Q22" s="27" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="59"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="40" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="18"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="Q23" s="52" t="s">
+      <c r="Q23" s="27" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="59"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="27" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="18"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q24" s="27" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="59"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="27" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="18"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="Q25" s="52" t="s">
+      <c r="Q25" s="27" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="59"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="27" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="18"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="27" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="59"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="27" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="18"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="Q27" s="52" t="s">
+      <c r="Q27" s="27" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="59"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="27" t="s">
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="18"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="Q28" s="52" t="s">
+      <c r="Q28" s="27" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="59"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="27" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="18"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="Q29" s="52" t="s">
+      <c r="Q29" s="27" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="78"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="27" t="s">
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="Q30" s="52" t="s">
+      <c r="Q30" s="27" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="78"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="27" t="s">
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="Q31" s="52" t="s">
+      <c r="Q31" s="27" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="78"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="27" t="s">
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="Q32" s="52" t="s">
+      <c r="Q32" s="27" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="27" t="s">
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="Q33" s="27" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="78"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="27" t="s">
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="Q34" s="52" t="s">
+      <c r="Q34" s="27" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="78"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="27" t="s">
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="Q35" s="52" t="s">
+      <c r="Q35" s="27" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="78"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="27" t="s">
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q36" s="52" t="s">
+      <c r="Q36" s="27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="78"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="27" t="s">
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q37" s="52" t="s">
+      <c r="Q37" s="27" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="81"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="27" t="s">
+      <c r="J38" s="55"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="Q38" s="52" t="s">
+      <c r="Q38" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="P39" s="27" t="s">
+      <c r="P39" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="Q39" s="52" t="s">
+      <c r="Q39" s="27" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:G29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F13:H21"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2887,21 +2784,6 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:G29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F13:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2933,903 +2815,903 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="86" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="101" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="103"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="65"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="104" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="86" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="92" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="105" t="s">
+      <c r="S2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="101" t="s">
+      <c r="U2" s="64"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="101" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="101" t="s">
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="101" t="s">
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="101" t="s">
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="103"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="65"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="92"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57" t="s">
+      <c r="R3" s="61"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="57" t="s">
+      <c r="U3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AB3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AD3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AE3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AG3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AH3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="55" t="s">
+      <c r="AI3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="55" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="55" t="s">
+      <c r="AK3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
-        <v>0</v>
-      </c>
-      <c r="I4" s="26">
-        <v>0</v>
-      </c>
-      <c r="J4" s="26">
-        <v>0</v>
-      </c>
-      <c r="K4" s="26">
-        <v>0</v>
-      </c>
-      <c r="L4" s="26">
-        <v>0</v>
-      </c>
-      <c r="M4" s="26">
-        <v>0</v>
-      </c>
-      <c r="N4" s="26">
-        <v>0</v>
-      </c>
-      <c r="O4" s="26">
-        <v>0</v>
-      </c>
-      <c r="P4" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="26">
-        <v>0</v>
-      </c>
-      <c r="R4" s="26">
-        <v>0</v>
-      </c>
-      <c r="S4" s="57">
-        <v>0</v>
-      </c>
-      <c r="T4" s="57">
-        <v>0</v>
-      </c>
-      <c r="U4" s="57">
-        <v>0</v>
-      </c>
-      <c r="V4" s="57">
-        <v>0</v>
-      </c>
-      <c r="W4" s="55">
-        <v>0</v>
-      </c>
-      <c r="X4" s="55">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="55">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="55">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="57">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
         <v>0.5</v>
       </c>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
-      <c r="F5" s="26">
-        <v>0</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="26">
-        <v>0</v>
-      </c>
-      <c r="I5" s="26">
-        <v>0</v>
-      </c>
-      <c r="J5" s="26">
-        <v>0</v>
-      </c>
-      <c r="K5" s="26">
-        <v>0</v>
-      </c>
-      <c r="L5" s="72">
-        <v>0</v>
-      </c>
-      <c r="M5" s="72">
-        <v>0</v>
-      </c>
-      <c r="N5" s="72">
-        <v>0</v>
-      </c>
-      <c r="O5" s="26">
-        <v>0</v>
-      </c>
-      <c r="P5" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="26">
-        <v>0</v>
-      </c>
-      <c r="R5" s="26">
-        <v>0</v>
-      </c>
-      <c r="S5" s="57">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
         <v>0.9425</v>
       </c>
-      <c r="T5" s="74">
+      <c r="T5" s="36">
         <v>7.8562999999999994E-2</v>
       </c>
-      <c r="U5" s="74">
+      <c r="U5" s="36">
         <v>4.7123000000000003E-5</v>
       </c>
-      <c r="V5" s="74">
+      <c r="V5" s="36">
         <v>7.8562999999999994E-2</v>
       </c>
-      <c r="W5" s="55">
-        <v>0</v>
-      </c>
-      <c r="X5" s="55">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="55">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="55">
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="6">
         <v>0.5</v>
       </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0</v>
-      </c>
-      <c r="I6" s="26">
-        <v>0</v>
-      </c>
-      <c r="J6" s="26">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26">
-        <v>0</v>
-      </c>
-      <c r="L6" s="72">
-        <v>0</v>
-      </c>
-      <c r="M6" s="72">
-        <v>0</v>
-      </c>
-      <c r="N6" s="72">
-        <v>0</v>
-      </c>
-      <c r="O6" s="26">
-        <v>0</v>
-      </c>
-      <c r="P6" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="26">
-        <v>0</v>
-      </c>
-      <c r="R6" s="26">
-        <v>0</v>
-      </c>
-      <c r="S6" s="73">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
         <v>0.9425</v>
       </c>
-      <c r="T6" s="74">
+      <c r="T6" s="36">
         <v>4.7123799999999998E-5</v>
       </c>
-      <c r="U6" s="74">
+      <c r="U6" s="36">
         <v>7.8562999999999994E-2</v>
       </c>
-      <c r="V6" s="74">
+      <c r="V6" s="36">
         <v>7.8653299999999995E-2</v>
       </c>
-      <c r="W6" s="55">
-        <v>0</v>
-      </c>
-      <c r="X6" s="55">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="55">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="55">
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
         <v>-0.5</v>
       </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
-        <v>0</v>
-      </c>
-      <c r="J7" s="26">
-        <v>0</v>
-      </c>
-      <c r="K7" s="26">
-        <v>0</v>
-      </c>
-      <c r="L7" s="72">
-        <v>0</v>
-      </c>
-      <c r="M7" s="72">
-        <v>0</v>
-      </c>
-      <c r="N7" s="72">
-        <v>0</v>
-      </c>
-      <c r="O7" s="26">
-        <v>0</v>
-      </c>
-      <c r="P7" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>0</v>
-      </c>
-      <c r="R7" s="26">
-        <v>0</v>
-      </c>
-      <c r="S7" s="73">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
         <v>0.9425</v>
       </c>
-      <c r="T7" s="74">
+      <c r="T7" s="36">
         <v>7.8563300000000003E-2</v>
       </c>
-      <c r="U7" s="74">
+      <c r="U7" s="36">
         <v>7.8563300000000003E-2</v>
       </c>
-      <c r="V7" s="74">
+      <c r="V7" s="36">
         <v>4.7123799999999998E-5</v>
       </c>
-      <c r="W7" s="55">
-        <v>0</v>
-      </c>
-      <c r="X7" s="55">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="55">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="55">
+      <c r="W7" s="6">
+        <v>0</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="6">
         <v>0.5</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="6">
         <v>-1</v>
       </c>
-      <c r="F8" s="53">
-        <v>0</v>
-      </c>
-      <c r="G8" s="53">
-        <v>0</v>
-      </c>
-      <c r="H8" s="53">
-        <v>0</v>
-      </c>
-      <c r="I8" s="53">
-        <v>0</v>
-      </c>
-      <c r="J8" s="53">
-        <v>0</v>
-      </c>
-      <c r="K8" s="53">
-        <v>0</v>
-      </c>
-      <c r="L8" s="72">
-        <v>0</v>
-      </c>
-      <c r="M8" s="72">
-        <v>0</v>
-      </c>
-      <c r="N8" s="72">
-        <v>0</v>
-      </c>
-      <c r="O8" s="53">
-        <v>0</v>
-      </c>
-      <c r="P8" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="53">
-        <v>0</v>
-      </c>
-      <c r="R8" s="53">
-        <v>0</v>
-      </c>
-      <c r="S8" s="73">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
         <v>0.9425</v>
       </c>
-      <c r="T8" s="74">
+      <c r="T8" s="36">
         <v>7.8562999999999994E-2</v>
       </c>
-      <c r="U8" s="74">
+      <c r="U8" s="36">
         <v>4.7123000000000003E-5</v>
       </c>
-      <c r="V8" s="74">
+      <c r="V8" s="36">
         <v>7.8562999999999994E-2</v>
       </c>
-      <c r="W8" s="55">
-        <v>0</v>
-      </c>
-      <c r="X8" s="55">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="55">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="55">
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="6">
         <v>0.5</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="6">
         <v>-1</v>
       </c>
-      <c r="F9" s="53">
-        <v>0</v>
-      </c>
-      <c r="G9" s="53">
-        <v>0</v>
-      </c>
-      <c r="H9" s="53">
-        <v>0</v>
-      </c>
-      <c r="I9" s="53">
-        <v>0</v>
-      </c>
-      <c r="J9" s="53">
-        <v>0</v>
-      </c>
-      <c r="K9" s="53">
-        <v>0</v>
-      </c>
-      <c r="L9" s="72">
-        <v>0</v>
-      </c>
-      <c r="M9" s="72">
-        <v>0</v>
-      </c>
-      <c r="N9" s="72">
-        <v>0</v>
-      </c>
-      <c r="O9" s="53">
-        <v>0</v>
-      </c>
-      <c r="P9" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="53">
-        <v>0</v>
-      </c>
-      <c r="R9" s="53">
-        <v>0</v>
-      </c>
-      <c r="S9" s="73">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
         <v>0.9425</v>
       </c>
-      <c r="T9" s="74">
+      <c r="T9" s="36">
         <v>4.7123799999999998E-5</v>
       </c>
-      <c r="U9" s="74">
+      <c r="U9" s="36">
         <v>7.8562999999999994E-2</v>
       </c>
-      <c r="V9" s="74">
+      <c r="V9" s="36">
         <v>7.8653299999999995E-2</v>
       </c>
-      <c r="W9" s="55">
-        <v>0</v>
-      </c>
-      <c r="X9" s="55">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="55">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="55">
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3839,9 +3721,9 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -3857,9 +3739,9 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3875,9 +3757,9 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3890,9 +3772,9 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3905,9 +3787,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3923,9 +3805,9 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3941,9 +3823,9 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3959,9 +3841,9 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3977,9 +3859,9 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3995,9 +3877,9 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -4008,148 +3890,148 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="3"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="3"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="3"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="3"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="3"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="3"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
@@ -6853,6 +6735,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="S1:AK1"/>
@@ -6869,8 +6753,6 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6881,7 +6763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -6901,1198 +6783,1112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="114" t="s">
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="108" t="s">
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108" t="s">
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="9"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="108" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
         <v>1</v>
       </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="19">
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
         <v>0.1</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="7">
         <v>1</v>
       </c>
-      <c r="K13" s="19">
-        <v>0</v>
-      </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
         <v>0.1</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="7">
         <v>3</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="7">
         <v>4</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="9">
         <v>1</v>
       </c>
-      <c r="G15" s="21">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
         <v>1</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="7">
         <v>0.1</v>
       </c>
-      <c r="K15" s="19">
-        <v>0</v>
-      </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="60">
+      <c r="C16" s="1"/>
+      <c r="D16" s="7">
         <v>4</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="7">
         <v>5</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="9">
         <v>1</v>
       </c>
-      <c r="G16" s="61">
-        <v>0</v>
-      </c>
-      <c r="H16" s="61">
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
         <v>-1</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J16" s="60">
-        <v>0</v>
-      </c>
-      <c r="K16" s="60">
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
         <v>-1</v>
       </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="13">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="1">
         <v>6</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="1">
         <v>-1</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="1">
         <v>-0.9</v>
       </c>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-    </row>
-    <row r="18" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>6</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="1">
         <v>6</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="1">
         <v>-1</v>
       </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="7">
         <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="110" t="s">
+      <c r="F21" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="108" t="s">
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-    </row>
-    <row r="22" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+    </row>
+    <row r="22" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="9"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
     </row>
     <row r="24" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-    </row>
-    <row r="25" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="110" t="s">
+      <c r="F25" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="108" t="s">
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-    </row>
-    <row r="26" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="109" t="s">
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+    </row>
+    <row r="26" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-    </row>
-    <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+    </row>
+    <row r="29" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="110" t="s">
+      <c r="F29" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="108" t="s">
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108" t="s">
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-    </row>
-    <row r="30" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="109" t="s">
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+    </row>
+    <row r="30" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:24" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-    </row>
-    <row r="33" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+    </row>
+    <row r="33" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="114" t="s">
+      <c r="F33" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="115"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="114" t="s">
+      <c r="G33" s="70"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="115"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="108" t="s">
+      <c r="J33" s="70"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108" t="s">
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="108"/>
-    </row>
-    <row r="34" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-    </row>
-    <row r="35" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+    </row>
+    <row r="34" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:24" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-    </row>
-    <row r="37" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+    </row>
+    <row r="38" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="9"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
     </row>
     <row r="40" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="109" t="s">
+      <c r="A40" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-    </row>
-    <row r="41" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+    </row>
+    <row r="41" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="9"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="74"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="108" t="s">
+      <c r="E45" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>1</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="17">
+      <c r="C46" s="1"/>
+      <c r="D46" s="7">
         <v>2</v>
       </c>
-      <c r="E46" s="17">
-        <v>0</v>
-      </c>
-      <c r="F46" s="17">
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
         <v>1</v>
       </c>
-      <c r="G46" s="17">
-        <v>0</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>2</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="39">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
         <v>3</v>
       </c>
-      <c r="E47" s="39">
-        <v>0</v>
-      </c>
-      <c r="F47" s="17">
-        <v>0</v>
-      </c>
-      <c r="G47" s="39">
-        <v>0</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>3</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="39">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
         <v>4</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="F48" s="39">
-        <v>0</v>
-      </c>
-      <c r="G48" s="39">
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+      <c r="A49" s="1">
         <v>4</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="39">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1">
         <v>5</v>
       </c>
-      <c r="E49" s="39">
+      <c r="E49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="39">
-        <v>0</v>
-      </c>
-      <c r="G49" s="39">
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
+      <c r="A50" s="1">
         <v>5</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="1">
         <v>6</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="1">
         <v>1</v>
       </c>
-      <c r="F50" s="39">
+      <c r="F50" s="1">
         <v>1</v>
       </c>
-      <c r="G50" s="39">
+      <c r="G50" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+      <c r="A51" s="1">
         <v>6</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="1">
         <v>6</v>
       </c>
-      <c r="E51" s="39">
-        <v>0</v>
-      </c>
-      <c r="F51" s="39">
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
         <v>1</v>
       </c>
-      <c r="G51" s="39">
+      <c r="G51" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="F25:H25"/>
@@ -8109,6 +7905,21 @@
     <mergeCell ref="I33:K33"/>
     <mergeCell ref="L33:N33"/>
     <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -8145,67 +7956,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="118"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="64" t="s">
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="13"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I4" s="24"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
@@ -8258,638 +8069,643 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="119" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="121"/>
-      <c r="AB2" s="130" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
+      <c r="AB2" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="132"/>
-    </row>
-    <row r="3" spans="1:33" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="82"/>
+    </row>
+    <row r="3" spans="1:33" s="12" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127" t="s">
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="128"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="66" t="s">
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="P3" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="139" t="s">
+      <c r="R3" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="139"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="135"/>
+      <c r="S3" s="89"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="85"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="134"/>
-      <c r="AG4" s="135"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="85"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="134"/>
-      <c r="AD5" s="134"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="135"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="85"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134"/>
-      <c r="AF6" s="134"/>
-      <c r="AG6" s="135"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="85"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="AB7" s="133"/>
-      <c r="AC7" s="134"/>
-      <c r="AD7" s="134"/>
-      <c r="AE7" s="134"/>
-      <c r="AF7" s="134"/>
-      <c r="AG7" s="135"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="85"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="140" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="140"/>
-      <c r="AB8" s="133"/>
-      <c r="AC8" s="134"/>
-      <c r="AD8" s="134"/>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="134"/>
-      <c r="AG8" s="135"/>
-    </row>
-    <row r="9" spans="1:33" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="85"/>
+    </row>
+    <row r="9" spans="1:33" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="125" t="s">
+      <c r="F9" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127" t="s">
+      <c r="G9" s="92"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="32" t="s">
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" s="125" t="s">
+      <c r="Q9" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="R9" s="126"/>
-      <c r="AB9" s="133"/>
-      <c r="AC9" s="134"/>
-      <c r="AD9" s="134"/>
-      <c r="AE9" s="134"/>
-      <c r="AF9" s="134"/>
-      <c r="AG9" s="135"/>
+      <c r="R9" s="93"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="85"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="24"/>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="134"/>
-      <c r="AD10" s="134"/>
-      <c r="AE10" s="134"/>
-      <c r="AF10" s="134"/>
-      <c r="AG10" s="135"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="10"/>
+      <c r="AB10" s="83"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="85"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="68"/>
-      <c r="AB11" s="133"/>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="134"/>
-      <c r="AF11" s="134"/>
-      <c r="AG11" s="135"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="32"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="85"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Q12" s="39"/>
-      <c r="AB12" s="133"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="135"/>
+      <c r="Q12" s="1"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="85"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="AB13" s="136"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="138"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="88"/>
     </row>
     <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="112"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="119" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-    </row>
-    <row r="15" spans="1:33" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+    </row>
+    <row r="15" spans="1:33" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="127" t="s">
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="94" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="128"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="122" t="s">
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="M15" s="123"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="122" t="s">
+      <c r="M15" s="98"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="32" t="s">
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="63" t="s">
+      <c r="S15" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="T15" s="65" t="s">
+      <c r="T15" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="U15" s="65" t="s">
+      <c r="U15" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="V15" s="65" t="s">
+      <c r="V15" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="W15" s="32" t="s">
+      <c r="W15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="X15" s="125" t="s">
+      <c r="X15" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="Y15" s="126"/>
+      <c r="Y15" s="93"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="119" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="121"/>
-    </row>
-    <row r="20" spans="1:20" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="79"/>
+    </row>
+    <row r="20" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="122" t="s">
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="123"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="65" t="s">
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="65" t="s">
+      <c r="M20" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="N20" s="65" t="s">
+      <c r="N20" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="125" t="s">
+      <c r="P20" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="Q20" s="126"/>
+      <c r="Q20" s="93"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="X15:Y15"/>
     <mergeCell ref="AB2:AG13"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A8:M8"/>
@@ -8901,16 +8717,11 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8933,530 +8744,530 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="F1" s="95" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="F1" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="97"/>
-      <c r="I1" s="95" t="s">
+      <c r="G1" s="43"/>
+      <c r="I1" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="142" t="s">
+      <c r="I2" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="F3" s="50" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="F4" s="50" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="F5" s="50" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="F6" s="50" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="50" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="F8" s="50" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="27" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="50" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="F10" s="50" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="27" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="F11" s="50" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="27" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="F12" s="50" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="27" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="F13" s="50" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="27" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="F14" s="50" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="27" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="F15" s="50" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="F16" s="50" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="27" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="F17" s="50" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="27" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="F18" s="50" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="7">
         <v>4</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1">
         <v>4</v>
       </c>
-      <c r="S18" s="39">
+      <c r="S18" s="1">
         <v>5</v>
       </c>
-      <c r="T18" s="39">
+      <c r="T18" s="1">
         <v>1000</v>
       </c>
-      <c r="U18" s="39">
-        <v>0</v>
-      </c>
-      <c r="V18" s="39">
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
         <v>-1000</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18" s="7">
         <v>1000</v>
       </c>
-      <c r="X18" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="17">
+      <c r="X18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="7">
         <v>-500</v>
       </c>
-      <c r="Z18" s="19">
+      <c r="Z18" s="7">
         <v>1000</v>
       </c>
-      <c r="AA18" s="19">
+      <c r="AA18" s="7">
         <v>500</v>
       </c>
-      <c r="AB18" s="19">
+      <c r="AB18" s="7">
         <v>-1000</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="F19" s="50" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="27" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="F20" s="50" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="27" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="F21" s="50" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="27" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="F22" s="50" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="F22" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="27" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="F23" s="27" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="27" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="F24" s="27" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="27" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="F25" s="27" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="27" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="F26" s="27" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="27" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="F27" s="27" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="F27" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="27" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="F28" s="27" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="27" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="F29" s="27" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="27" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="F30" s="27" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="F30" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="27" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="F31" s="27" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="27" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="F32" s="27" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="27" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="F33" s="27" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="F33" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="27" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="F34" s="27" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="27" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="F35" s="27" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="F35" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="F36" s="27" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="F36" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="27" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="F37" s="27" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="F38" s="27" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="F38" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="27" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
